--- a/慶生會基金202409/2 生日表(after 202404).xlsx
+++ b/慶生會基金202409/2 生日表(after 202404).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i309\Desktop\慶生會基金202407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i356\tunghosteel_birthday_fund\慶生會基金202409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF8A604-5FFD-4DC7-8B14-BA5588D771F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CADAFD-BE73-4976-8749-9AF498399403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D4E23921-1D29-4EE2-ABCC-68EA714B3D78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D4E23921-1D29-4EE2-ABCC-68EA714B3D78}"/>
   </bookViews>
   <sheets>
     <sheet name="壽星" sheetId="1" r:id="rId1"/>
@@ -530,18 +530,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>壽星 &amp; 輪序加入新到職人員（蕭趙寬、黃惠珊、范綱鎮）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>黃惠珊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>范綱鎮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.07.02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -578,6 +570,14 @@
   </si>
   <si>
     <t>王孝忠（經理）、邱彥鈞、郭朝易、尹守漢（經理、苗栗）、袁華建、賴寬榮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>壽星 &amp; 輪序加入新到職人員（蕭趙寬、黃惠珊）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高郁琦</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -663,11 +663,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +708,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1109,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1165,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1191,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489240C-3E8E-462C-90FF-0BE60605AF7A}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1567,7 +1581,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47" s="3">
         <v>202409</v>
@@ -1579,6 +1593,14 @@
       </c>
       <c r="B48" s="3">
         <v>202410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="13">
+        <v>202411</v>
       </c>
     </row>
   </sheetData>
@@ -1588,14 +1610,9 @@
       <formula>A40=OFFSET($A$1, COUNTA($A:$A)-1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="A46:A49">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>A46=OFFSET($A$1, COUNTA($A:$A)-1, 0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>A48=OFFSET($A$1, COUNTA($A:$A)-1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1605,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA671D4-1A32-4AF2-BCEB-FA9D61EAE936}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1758,7 +1775,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -1768,51 +1785,46 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1837,7 +1849,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A1:A24 A44:A1048576 A27:A40</xm:sqref>
+          <xm:sqref>A1:A24 A43:A1048576 A27:A39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1849,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75003405-DD14-4686-9ACA-D349F387AFEF}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2204,35 +2216,35 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/慶生會基金202409/2 生日表(after 202404).xlsx
+++ b/慶生會基金202409/2 生日表(after 202404).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i356\tunghosteel_birthday_fund\慶生會基金202409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CADAFD-BE73-4976-8749-9AF498399403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889C914-218D-44A4-AB91-ED58A6154B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D4E23921-1D29-4EE2-ABCC-68EA714B3D78}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{D4E23921-1D29-4EE2-ABCC-68EA714B3D78}"/>
   </bookViews>
   <sheets>
     <sheet name="壽星" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
   <si>
     <t>月份</t>
   </si>
@@ -578,6 +578,10 @@
   </si>
   <si>
     <t>高郁琦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴偉廉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,6 +714,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,17 +724,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1076,14 +1073,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB87FEE1-FCAB-4017-A311-FA5419D7D409}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.4375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1205,13 +1202,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489240C-3E8E-462C-90FF-0BE60605AF7A}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -1603,15 +1600,23 @@
         <v>202411</v>
       </c>
     </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="14">
+        <v>202412</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A40:A42 A43:B43">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>A40=OFFSET($A$1, COUNTA($A:$A)-1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A49">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A46:A50">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>A46=OFFSET($A$1, COUNTA($A:$A)-1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1628,9 +1633,9 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1849,7 +1854,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A1:A24 A43:A1048576 A27:A39</xm:sqref>
+          <xm:sqref>A1:A24 A27:A39 A43:A1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1865,12 +1870,12 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.45"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.77734375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.75" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1895,7 +1900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row r="3" spans="1:3" ht="30.9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5">
+    <row r="4" spans="1:3" ht="30.9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2137,7 +2142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25">
+    <row r="25" spans="1:3" ht="46.3">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5">
+    <row r="28" spans="1:3" ht="30.9">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2181,7 +2186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5">
+    <row r="29" spans="1:3" ht="30.9">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -2192,7 +2197,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="47.25">
+    <row r="30" spans="1:3" ht="46.3">
       <c r="A30" s="1" t="s">
         <v>132</v>
       </c>
